--- a/src/Resoures/WebElementLocator.xlsx
+++ b/src/Resoures/WebElementLocator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\java workspace\Web_Auto\src\Resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23205469-2C17-4A10-A0B1-D1F9C1098715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42452022-D88E-4D6C-89D5-5DC702D7CE07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <t>content</t>
   </si>
   <si>
-    <t>/html/body/div[3]/div[3]/div[3]/p[1]</t>
+    <t>/html/body/div[3]/div[3]/div[3]</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
